--- a/data/s_vals/2024/rosenberg_kenny.xlsx
+++ b/data/s_vals/2024/rosenberg_kenny.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0009277085571464116</v>
+        <v>3.820521676800581e-11</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0006044301544314568</v>
+        <v>2.22304730179701e-09</v>
       </c>
       <c r="D2" t="n">
-        <v>5.22600755797499</v>
+        <v>337.1190423067083</v>
       </c>
       <c r="E2" t="n">
-        <v>47.04425097037385</v>
+        <v>2367095152636972</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>52.27179066706042</v>
+        <v>2367095152637308</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2024/rosenberg_kenny.xlsx
+++ b/data/s_vals/2024/rosenberg_kenny.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>sum</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Save</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -488,6 +493,9 @@
       </c>
       <c r="G2" t="n">
         <v>2367095152637308</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2024/rosenberg_kenny.xlsx
+++ b/data/s_vals/2024/rosenberg_kenny.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,11 +464,6 @@
           <t>sum</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Save</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -493,9 +488,6 @@
       </c>
       <c r="G2" t="n">
         <v>2367095152637308</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2024/rosenberg_kenny.xlsx
+++ b/data/s_vals/2024/rosenberg_kenny.xlsx
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.820521676800581e-11</v>
+        <v>5.46653389221774e-10</v>
       </c>
       <c r="C2" t="n">
-        <v>2.22304730179701e-09</v>
+        <v>1.27202479660582e-08</v>
       </c>
       <c r="D2" t="n">
-        <v>337.1190423067083</v>
+        <v>157.8057217802531</v>
       </c>
       <c r="E2" t="n">
-        <v>2367095152636972</v>
+        <v>5548678842208.939</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2367095152637308</v>
+        <v>5548678842366.745</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
